--- a/case/interface.xlsx
+++ b/case/interface.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\autotest\autotest\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06DCAF6-6A34-4189-96CB-9B6B0552AA0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF26A5AF-4AA2-411D-AAA9-69D4A0A46556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置信息" sheetId="2" r:id="rId1"/>
-    <sheet name="测试用例" sheetId="1" r:id="rId2"/>
+    <sheet name="接口信息" sheetId="3" r:id="rId2"/>
+    <sheet name="测试用例" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>add_fonds</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,11 +177,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否选用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://suggest.taobao.com</t>
+    <t>环境名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://demo.jeecms.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +210,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -233,9 +230,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -245,14 +241,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,66 +527,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A7DDA-444F-4E9E-AC3C-E1A9B44CCF65}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
+      <c r="C2">
         <v>443</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B17827C6-E354-45D3-AF08-A29DD6F606EC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB6A06-E728-4CD8-95CC-1D273CEB2F72}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -616,44 +657,44 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -679,7 +720,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -706,7 +747,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -730,7 +771,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -754,7 +795,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>

--- a/case/interface.xlsx
+++ b/case/interface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\autotest\autotest\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF26A5AF-4AA2-411D-AAA9-69D4A0A46556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA174E1-F917-4633-8907-02AF0F0115F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1488" yWindow="660" windowWidth="19548" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置信息" sheetId="2" r:id="rId1"/>
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
-  <si>
-    <t>add_fonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,46 +57,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>search2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"utf-8","q":"$&lt;bb&gt;"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"utf-8","q":"$&lt;cc&gt;"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$.result[0].[0]":"cc"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"$.result[0].[0]":"bb"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"$.result[0].[0]":"dd"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"$.result[0].[0]":"$&lt;aa&gt;"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +154,38 @@
   </si>
   <si>
     <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cmsadmin/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"identity":"test","desStr":"EwSSctvjsSxmeuCGIByvWA==","captcha":"","sessionId":"","codeMessage":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,49 +523,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A7DDA-444F-4E9E-AC3C-E1A9B44CCF65}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>443</v>
@@ -584,55 +583,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB6A06-E728-4CD8-95CC-1D273CEB2F72}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="77.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -657,173 +680,101 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="4" spans="1:12" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/case/interface.xlsx
+++ b/case/interface.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\autotest\autotest\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA174E1-F917-4633-8907-02AF0F0115F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECB9A56-9E59-4087-A15E-4A65AA0D97F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1488" yWindow="660" windowWidth="19548" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置信息" sheetId="2" r:id="rId1"/>
     <sheet name="接口信息" sheetId="3" r:id="rId2"/>
     <sheet name="测试用例" sheetId="1" r:id="rId3"/>
+    <sheet name="用例调试" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,13 +28,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http</t>
+  </si>
+  <si>
+    <t>http://demo.jeecms.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cmsadmin/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"identity":"test","desStr":"EwSSctvjsSxmeuCGIByvWA==","captcha":"","sessionId":"","codeMessage":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.data.JEECMS-Auth-Token":"token"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -41,151 +168,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/sug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"utf-8","q":"卫衣"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$.result[0].[0]":"aa"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"utf-8","q":"$&lt;aa&gt;"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$.result[0].[0]":"bb"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$.result[0].[0]":"$&lt;aa&gt;"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://demo.jeecms.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>di</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cmsadmin/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"identity":"test","desStr":"EwSSctvjsSxmeuCGIByvWA==","captcha":"","sessionId":"","codeMessage":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
+    <t>/cmsadmin/content/model/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cmsadmin/channel/content/common/tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"permOut":"false","operator":"","siteId":"","name":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.data[0].children[0].id":"caijingid"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"JEECMS-Auth-Token":"$&lt;token&gt;"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"channelId":"$&lt;caijingid&gt;"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCaijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":"200"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":"200"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":"200","$.data[0].children[0].name":"财经1"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -237,10 +264,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -524,51 +554,49 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C2">
         <v>443</v>
@@ -583,63 +611,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB6A06-E728-4CD8-95CC-1D273CEB2F72}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="77.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="6" max="6" width="45.109375" customWidth="1"/>
+    <col min="7" max="7" width="87.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -651,133 +733,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.77734375" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" customWidth="1"/>
-    <col min="12" max="12" width="30.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" customWidth="1"/>
+    <col min="1" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="54.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC46CA73-A7A2-4EB3-A7AB-1CC1A9073A68}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>